--- a/Code/Results/Cases/Case_0_145/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_145/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.921225952347362</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>14.13840733984416</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10.65140177198153</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>87.71173943591718</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.87031506664168</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.11892424937413</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>46.66205555216264</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>16.9197818663184</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.994608540441829</v>
+        <v>4.782414914187206</v>
       </c>
       <c r="D3">
-        <v>24.14334164531049</v>
+        <v>13.67237675055674</v>
       </c>
       <c r="E3">
-        <v>19.78588565366938</v>
+        <v>10.1884944456187</v>
       </c>
       <c r="F3">
-        <v>110.2662593918708</v>
+        <v>86.70639354936995</v>
       </c>
       <c r="G3">
-        <v>1.747503172053388</v>
+        <v>3.88676821001263</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.502132644258763</v>
+        <v>8.117626735390115</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>62.16780223192301</v>
+        <v>45.74244540644763</v>
       </c>
       <c r="N3">
-        <v>12.47989032803667</v>
+        <v>16.92166942124553</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.275276201480121</v>
+        <v>4.698164372148693</v>
       </c>
       <c r="D4">
-        <v>21.88441084561154</v>
+        <v>13.38759550122272</v>
       </c>
       <c r="E4">
-        <v>18.09883460928624</v>
+        <v>9.899067601828708</v>
       </c>
       <c r="F4">
-        <v>100.5151598706632</v>
+        <v>86.13421004862063</v>
       </c>
       <c r="G4">
-        <v>1.826724740651349</v>
+        <v>3.897266215922981</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.420534345689673</v>
+        <v>8.117359940845692</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>57.13477462736792</v>
+        <v>45.18696799520995</v>
       </c>
       <c r="N4">
-        <v>12.64067906653489</v>
+        <v>16.92568559197079</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.015125000699434</v>
+        <v>4.664121895546385</v>
       </c>
       <c r="D5">
-        <v>21.07301492840898</v>
+        <v>13.27205086250199</v>
       </c>
       <c r="E5">
-        <v>17.48709396299462</v>
+        <v>9.779986525210351</v>
       </c>
       <c r="F5">
-        <v>97.06669053894079</v>
+        <v>85.91235688599869</v>
       </c>
       <c r="G5">
-        <v>1.854152495035811</v>
+        <v>3.901645415402065</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.393450510040159</v>
+        <v>8.1173832969916</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>55.28796189480482</v>
+        <v>44.96314389071509</v>
       </c>
       <c r="N5">
-        <v>12.68817714191235</v>
+        <v>16.9280484588643</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.973156941685321</v>
+        <v>4.658488004563112</v>
       </c>
       <c r="D6">
-        <v>20.942388143448</v>
+        <v>13.25290025793103</v>
       </c>
       <c r="E6">
-        <v>17.38830611340734</v>
+        <v>9.760149906707563</v>
       </c>
       <c r="F6">
-        <v>96.51468411654245</v>
+        <v>85.87620055250333</v>
       </c>
       <c r="G6">
-        <v>1.858517623202351</v>
+        <v>3.902378736799782</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.389198441773689</v>
+        <v>8.117395119206028</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>54.98879719031725</v>
+        <v>44.92613809473008</v>
       </c>
       <c r="N6">
-        <v>12.69538959163402</v>
+        <v>16.92848489642338</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.271673174601363</v>
+        <v>4.697704029186731</v>
       </c>
       <c r="D7">
-        <v>21.87315349495824</v>
+        <v>13.38603495502007</v>
       </c>
       <c r="E7">
-        <v>18.09036912253526</v>
+        <v>9.897465996959225</v>
       </c>
       <c r="F7">
-        <v>100.467094969864</v>
+        <v>86.1311722928407</v>
       </c>
       <c r="G7">
-        <v>1.827108976979567</v>
+        <v>3.897324863504382</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.420150648776391</v>
+        <v>8.117359722562394</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>57.10928864936569</v>
+        <v>45.18393884456691</v>
       </c>
       <c r="N7">
-        <v>12.64137137275501</v>
+        <v>16.92571450778964</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.105902691508854</v>
+        <v>4.873186413776811</v>
       </c>
       <c r="D8">
-        <v>27.68270139764841</v>
+        <v>13.97753204861404</v>
       </c>
       <c r="E8">
-        <v>22.38959906208028</v>
+        <v>10.4929660897822</v>
       </c>
       <c r="F8">
-        <v>125.8325905844498</v>
+        <v>87.35572753575894</v>
       </c>
       <c r="G8">
-        <v>1.614859141052409</v>
+        <v>3.875907007519033</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.65017638077576</v>
+        <v>8.118366169035786</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>69.70370091771414</v>
+        <v>46.3432106516997</v>
       </c>
       <c r="N8">
-        <v>12.1181165877669</v>
+        <v>16.91984443604179</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.105902691508854</v>
+        <v>5.223244751042517</v>
       </c>
       <c r="D9">
-        <v>27.68270139764841</v>
+        <v>15.14164375519675</v>
       </c>
       <c r="E9">
-        <v>22.38959906208028</v>
+        <v>11.61309669596644</v>
       </c>
       <c r="F9">
-        <v>125.8325905844498</v>
+        <v>90.11498370360886</v>
       </c>
       <c r="G9">
-        <v>1.614859141052409</v>
+        <v>3.836967512514381</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.65017638077576</v>
+        <v>8.124600564648251</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>69.70370091771414</v>
+        <v>48.67919284408748</v>
       </c>
       <c r="N9">
-        <v>12.1181165877669</v>
+        <v>16.9306481602892</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.105902691508854</v>
+        <v>5.481777985543125</v>
       </c>
       <c r="D10">
-        <v>27.68270139764841</v>
+        <v>15.99152380436617</v>
       </c>
       <c r="E10">
-        <v>22.38959906208028</v>
+        <v>12.39995117015477</v>
       </c>
       <c r="F10">
-        <v>125.8325905844498</v>
+        <v>92.3592524426325</v>
       </c>
       <c r="G10">
-        <v>1.614859141052409</v>
+        <v>3.810109583586849</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.65017638077576</v>
+        <v>8.131862777470342</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>69.70370091771414</v>
+        <v>50.42061484863112</v>
       </c>
       <c r="N10">
-        <v>12.1181165877669</v>
+        <v>16.95168925965318</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.105902691508854</v>
+        <v>5.599267378523454</v>
       </c>
       <c r="D11">
-        <v>27.68270139764841</v>
+        <v>16.3755988842065</v>
       </c>
       <c r="E11">
-        <v>22.38959906208028</v>
+        <v>12.74897520402058</v>
       </c>
       <c r="F11">
-        <v>125.8325905844498</v>
+        <v>93.42681422498241</v>
       </c>
       <c r="G11">
-        <v>1.614859141052409</v>
+        <v>3.79824469904389</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.65017638077576</v>
+        <v>8.13576892596469</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>69.70370091771414</v>
+        <v>51.2157468384375</v>
       </c>
       <c r="N11">
-        <v>12.1181165877669</v>
+        <v>16.96399255454893</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.105902691508854</v>
+        <v>5.643710767008796</v>
       </c>
       <c r="D12">
-        <v>27.68270139764841</v>
+        <v>16.52057804389693</v>
       </c>
       <c r="E12">
-        <v>22.38959906208028</v>
+        <v>12.87979086196199</v>
       </c>
       <c r="F12">
-        <v>125.8325905844498</v>
+        <v>93.83771500383892</v>
       </c>
       <c r="G12">
-        <v>1.614859141052409</v>
+        <v>3.793800208512885</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.65017638077576</v>
+        <v>8.137336488828582</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>69.70370091771414</v>
+        <v>51.51707181252429</v>
       </c>
       <c r="N12">
-        <v>12.1181165877669</v>
+        <v>16.96903413674936</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.105902691508854</v>
+        <v>5.634141628393594</v>
       </c>
       <c r="D13">
-        <v>27.68270139764841</v>
+        <v>16.48937608866346</v>
       </c>
       <c r="E13">
-        <v>22.38959906208028</v>
+        <v>12.85167844150646</v>
       </c>
       <c r="F13">
-        <v>125.8325905844498</v>
+        <v>93.74892601948517</v>
       </c>
       <c r="G13">
-        <v>1.614859141052409</v>
+        <v>3.794755290237971</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.65017638077576</v>
+        <v>8.136994925818625</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>69.70370091771414</v>
+        <v>51.45216902302197</v>
       </c>
       <c r="N13">
-        <v>12.1181165877669</v>
+        <v>16.96793149311213</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.105902691508854</v>
+        <v>5.602924869016213</v>
       </c>
       <c r="D14">
-        <v>27.68270139764841</v>
+        <v>16.38753615627977</v>
       </c>
       <c r="E14">
-        <v>22.38959906208028</v>
+        <v>12.75976492665551</v>
       </c>
       <c r="F14">
-        <v>125.8325905844498</v>
+        <v>93.46048663055306</v>
       </c>
       <c r="G14">
-        <v>1.614859141052409</v>
+        <v>3.797878089895049</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.65017638077576</v>
+        <v>8.135896108399031</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>69.70370091771414</v>
+        <v>51.24053357643575</v>
       </c>
       <c r="N14">
-        <v>12.1181165877669</v>
+        <v>16.96439972085067</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.105902691508854</v>
+        <v>5.58379671719672</v>
       </c>
       <c r="D15">
-        <v>27.68270139764841</v>
+        <v>16.32509353600541</v>
       </c>
       <c r="E15">
-        <v>22.38959906208028</v>
+        <v>12.70328736835926</v>
       </c>
       <c r="F15">
-        <v>125.8325905844498</v>
+        <v>93.28467164312403</v>
       </c>
       <c r="G15">
-        <v>1.614859141052409</v>
+        <v>3.799797139382008</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.65017638077576</v>
+        <v>8.135234615866873</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>69.70370091771414</v>
+        <v>51.11092455663593</v>
       </c>
       <c r="N15">
-        <v>12.1181165877669</v>
+        <v>16.96228592278724</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.105902691508854</v>
+        <v>5.47409471097241</v>
       </c>
       <c r="D16">
-        <v>27.68270139764841</v>
+        <v>15.96636386967844</v>
       </c>
       <c r="E16">
-        <v>22.38959906208028</v>
+        <v>12.37695582046442</v>
       </c>
       <c r="F16">
-        <v>125.8325905844498</v>
+        <v>92.29041743862678</v>
       </c>
       <c r="G16">
-        <v>1.614859141052409</v>
+        <v>3.810891892629549</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.65017638077576</v>
+        <v>8.131619772356656</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>69.70370091771414</v>
+        <v>50.36869311526891</v>
       </c>
       <c r="N16">
-        <v>12.1181165877669</v>
+        <v>16.95093931413052</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.105902691508854</v>
+        <v>5.406742878158225</v>
       </c>
       <c r="D17">
-        <v>27.68270139764841</v>
+        <v>15.7455705779837</v>
       </c>
       <c r="E17">
-        <v>22.38959906208028</v>
+        <v>12.17442266203418</v>
       </c>
       <c r="F17">
-        <v>125.8325905844498</v>
+        <v>91.69237154971474</v>
       </c>
       <c r="G17">
-        <v>1.614859141052409</v>
+        <v>3.817786984259024</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.65017638077576</v>
+        <v>8.129557709066747</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>69.70370091771414</v>
+        <v>49.91396728406931</v>
       </c>
       <c r="N17">
-        <v>12.1181165877669</v>
+        <v>16.94467103479671</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.105902691508854</v>
+        <v>5.367994270885115</v>
       </c>
       <c r="D18">
-        <v>27.68270139764841</v>
+        <v>15.61834183533097</v>
       </c>
       <c r="E18">
-        <v>22.38959906208028</v>
+        <v>12.0570944171904</v>
       </c>
       <c r="F18">
-        <v>125.8325905844498</v>
+        <v>91.35278508549899</v>
       </c>
       <c r="G18">
-        <v>1.614859141052409</v>
+        <v>3.821786220363746</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.65017638077576</v>
+        <v>8.128428266314591</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>69.70370091771414</v>
+        <v>49.65270960202968</v>
       </c>
       <c r="N18">
-        <v>12.1181165877669</v>
+        <v>16.94132343334623</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.105902691508854</v>
+        <v>5.3548739954823</v>
       </c>
       <c r="D19">
-        <v>27.68270139764841</v>
+        <v>15.57522733697519</v>
       </c>
       <c r="E19">
-        <v>22.38959906208028</v>
+        <v>12.01722780215044</v>
       </c>
       <c r="F19">
-        <v>125.8325905844498</v>
+        <v>91.23856357060473</v>
       </c>
       <c r="G19">
-        <v>1.614859141052409</v>
+        <v>3.823146089857687</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.65017638077576</v>
+        <v>8.128055526586419</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>69.70370091771414</v>
+        <v>49.5643081297921</v>
       </c>
       <c r="N19">
-        <v>12.1181165877669</v>
+        <v>16.94023456540432</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.105902691508854</v>
+        <v>5.413913822943513</v>
       </c>
       <c r="D20">
-        <v>27.68270139764841</v>
+        <v>15.76909939868926</v>
       </c>
       <c r="E20">
-        <v>22.38959906208028</v>
+        <v>12.19606979537495</v>
       </c>
       <c r="F20">
-        <v>125.8325905844498</v>
+        <v>91.75558030320555</v>
       </c>
       <c r="G20">
-        <v>1.614859141052409</v>
+        <v>3.817049553171423</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.65017638077576</v>
+        <v>8.129771348934678</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>69.70370091771414</v>
+        <v>49.96234524949325</v>
       </c>
       <c r="N20">
-        <v>12.1181165877669</v>
+        <v>16.94531170058903</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.105902691508854</v>
+        <v>5.612095491743283</v>
       </c>
       <c r="D21">
-        <v>27.68270139764841</v>
+        <v>16.4174622336276</v>
       </c>
       <c r="E21">
-        <v>22.38959906208028</v>
+        <v>12.78679932466512</v>
       </c>
       <c r="F21">
-        <v>125.8325905844498</v>
+        <v>93.5450286557346</v>
       </c>
       <c r="G21">
-        <v>1.614859141052409</v>
+        <v>3.796959550815857</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.65017638077576</v>
+        <v>8.13621644430658</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>69.70370091771414</v>
+        <v>51.30269140647869</v>
       </c>
       <c r="N21">
-        <v>12.1181165877669</v>
+        <v>16.96542678804525</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.105902691508854</v>
+        <v>5.74133197065698</v>
       </c>
       <c r="D22">
-        <v>27.68270139764841</v>
+        <v>16.83848015655279</v>
       </c>
       <c r="E22">
-        <v>22.38959906208028</v>
+        <v>13.16497274384747</v>
       </c>
       <c r="F22">
-        <v>125.8325905844498</v>
+        <v>94.75319834220235</v>
       </c>
       <c r="G22">
-        <v>1.614859141052409</v>
+        <v>3.784111025056775</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.65017638077576</v>
+        <v>8.140944790978223</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>69.70370091771414</v>
+        <v>52.17992156902687</v>
       </c>
       <c r="N22">
-        <v>12.1181165877669</v>
+        <v>16.98079814968922</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.105902691508854</v>
+        <v>5.672391160512151</v>
       </c>
       <c r="D23">
-        <v>27.68270139764841</v>
+        <v>16.61405197705921</v>
       </c>
       <c r="E23">
-        <v>22.38959906208028</v>
+        <v>12.96387635818949</v>
       </c>
       <c r="F23">
-        <v>125.8325905844498</v>
+        <v>94.10486036788438</v>
       </c>
       <c r="G23">
-        <v>1.614859141052409</v>
+        <v>3.790943555750105</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.65017638077576</v>
+        <v>8.138373349035838</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>69.70370091771414</v>
+        <v>51.711675177005</v>
       </c>
       <c r="N23">
-        <v>12.1181165877669</v>
+        <v>16.97239406336672</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.105902691508854</v>
+        <v>5.41067192100082</v>
       </c>
       <c r="D24">
-        <v>27.68270139764841</v>
+        <v>15.75846292003013</v>
       </c>
       <c r="E24">
-        <v>22.38959906208028</v>
+        <v>12.18628589070375</v>
       </c>
       <c r="F24">
-        <v>125.8325905844498</v>
+        <v>91.72699041992347</v>
       </c>
       <c r="G24">
-        <v>1.614859141052409</v>
+        <v>3.817382836092882</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.65017638077576</v>
+        <v>8.129674587851179</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>69.70370091771414</v>
+        <v>49.94047302574013</v>
       </c>
       <c r="N24">
-        <v>12.1181165877669</v>
+        <v>16.94502125707276</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.105902691508854</v>
+        <v>5.128155021342971</v>
       </c>
       <c r="D25">
-        <v>27.68270139764841</v>
+        <v>14.82714568131217</v>
       </c>
       <c r="E25">
-        <v>22.38959906208028</v>
+        <v>11.31597818041474</v>
       </c>
       <c r="F25">
-        <v>125.8325905844498</v>
+        <v>89.33026405901062</v>
       </c>
       <c r="G25">
-        <v>1.614859141052409</v>
+        <v>3.847185541363483</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.65017638077576</v>
+        <v>8.122449445398921</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>69.70370091771414</v>
+        <v>48.04191647818998</v>
       </c>
       <c r="N25">
-        <v>12.1181165877669</v>
+        <v>16.92538677698564</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_145/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_145/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.921225952347362</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.13840733984416</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>10.65140177198153</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>87.71173943591718</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3.87031506664168</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.11892424937413</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>46.66205555216264</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.9197818663184</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.782414914187206</v>
+        <v>7.994608540441736</v>
       </c>
       <c r="D3">
-        <v>13.67237675055674</v>
+        <v>24.14334164530998</v>
       </c>
       <c r="E3">
-        <v>10.1884944456187</v>
+        <v>19.7858856536689</v>
       </c>
       <c r="F3">
-        <v>86.70639354936995</v>
+        <v>110.2662593918686</v>
       </c>
       <c r="G3">
-        <v>3.88676821001263</v>
+        <v>1.747503172053327</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.117626735390115</v>
+        <v>5.502132644258662</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>45.74244540644763</v>
+        <v>62.16780223192197</v>
       </c>
       <c r="N3">
-        <v>16.92166942124553</v>
+        <v>12.47989032803681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.698164372148693</v>
+        <v>7.275276201479844</v>
       </c>
       <c r="D4">
-        <v>13.38759550122272</v>
+        <v>21.88441084561126</v>
       </c>
       <c r="E4">
-        <v>9.899067601828708</v>
+        <v>18.09883460928597</v>
       </c>
       <c r="F4">
-        <v>86.13421004862063</v>
+        <v>100.5151598706619</v>
       </c>
       <c r="G4">
-        <v>3.897266215922981</v>
+        <v>1.826724740651325</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.117359940845692</v>
+        <v>5.420534345689608</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>45.18696799520995</v>
+        <v>57.1347746273673</v>
       </c>
       <c r="N4">
-        <v>16.92568559197079</v>
+        <v>12.640679066535</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.664121895546385</v>
+        <v>7.015125000699496</v>
       </c>
       <c r="D5">
-        <v>13.27205086250199</v>
+        <v>21.07301492840894</v>
       </c>
       <c r="E5">
-        <v>9.779986525210351</v>
+        <v>17.48709396299448</v>
       </c>
       <c r="F5">
-        <v>85.91235688599869</v>
+        <v>97.06669053894049</v>
       </c>
       <c r="G5">
-        <v>3.901645415402065</v>
+        <v>1.854152495035685</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.1173832969916</v>
+        <v>5.393450510040097</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>44.96314389071509</v>
+        <v>55.28796189480467</v>
       </c>
       <c r="N5">
-        <v>16.9280484588643</v>
+        <v>12.68817714191236</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.658488004563112</v>
+        <v>6.973156941685301</v>
       </c>
       <c r="D6">
-        <v>13.25290025793103</v>
+        <v>20.9423881434478</v>
       </c>
       <c r="E6">
-        <v>9.760149906707563</v>
+        <v>17.38830611340722</v>
       </c>
       <c r="F6">
-        <v>85.87620055250333</v>
+        <v>96.514684116542</v>
       </c>
       <c r="G6">
-        <v>3.902378736799782</v>
+        <v>1.858517623202345</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.117395119206028</v>
+        <v>5.389198441773661</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>44.92613809473008</v>
+        <v>54.98879719031702</v>
       </c>
       <c r="N6">
-        <v>16.92848489642338</v>
+        <v>12.69538959163401</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.697704029186731</v>
+        <v>7.27167317460151</v>
       </c>
       <c r="D7">
-        <v>13.38603495502007</v>
+        <v>21.87315349495819</v>
       </c>
       <c r="E7">
-        <v>9.897465996959225</v>
+        <v>18.09036912253521</v>
       </c>
       <c r="F7">
-        <v>86.1311722928407</v>
+        <v>100.4670949698639</v>
       </c>
       <c r="G7">
-        <v>3.897324863504382</v>
+        <v>1.827108976979447</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.117359722562394</v>
+        <v>5.420150648776387</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>45.18393884456691</v>
+        <v>57.10928864936561</v>
       </c>
       <c r="N7">
-        <v>16.92571450778964</v>
+        <v>12.64137137275502</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.873186413776811</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D8">
-        <v>13.97753204861404</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E8">
-        <v>10.4929660897822</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F8">
-        <v>87.35572753575894</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G8">
-        <v>3.875907007519033</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.118366169035786</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>46.3432106516997</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N8">
-        <v>16.91984443604179</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.223244751042517</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D9">
-        <v>15.14164375519675</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E9">
-        <v>11.61309669596644</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F9">
-        <v>90.11498370360886</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G9">
-        <v>3.836967512514381</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.124600564648251</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>48.67919284408748</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N9">
-        <v>16.9306481602892</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.481777985543125</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D10">
-        <v>15.99152380436617</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E10">
-        <v>12.39995117015477</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F10">
-        <v>92.3592524426325</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G10">
-        <v>3.810109583586849</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.131862777470342</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>50.42061484863112</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N10">
-        <v>16.95168925965318</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.599267378523454</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D11">
-        <v>16.3755988842065</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E11">
-        <v>12.74897520402058</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F11">
-        <v>93.42681422498241</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G11">
-        <v>3.79824469904389</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.13576892596469</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>51.2157468384375</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N11">
-        <v>16.96399255454893</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.643710767008796</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D12">
-        <v>16.52057804389693</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E12">
-        <v>12.87979086196199</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F12">
-        <v>93.83771500383892</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G12">
-        <v>3.793800208512885</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.137336488828582</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>51.51707181252429</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N12">
-        <v>16.96903413674936</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.634141628393594</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D13">
-        <v>16.48937608866346</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E13">
-        <v>12.85167844150646</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F13">
-        <v>93.74892601948517</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G13">
-        <v>3.794755290237971</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.136994925818625</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>51.45216902302197</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N13">
-        <v>16.96793149311213</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.602924869016213</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D14">
-        <v>16.38753615627977</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E14">
-        <v>12.75976492665551</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F14">
-        <v>93.46048663055306</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G14">
-        <v>3.797878089895049</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.135896108399031</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>51.24053357643575</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N14">
-        <v>16.96439972085067</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.58379671719672</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D15">
-        <v>16.32509353600541</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E15">
-        <v>12.70328736835926</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F15">
-        <v>93.28467164312403</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G15">
-        <v>3.799797139382008</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.135234615866873</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>51.11092455663593</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N15">
-        <v>16.96228592278724</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.47409471097241</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D16">
-        <v>15.96636386967844</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E16">
-        <v>12.37695582046442</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F16">
-        <v>92.29041743862678</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G16">
-        <v>3.810891892629549</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.131619772356656</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>50.36869311526891</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N16">
-        <v>16.95093931413052</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.406742878158225</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D17">
-        <v>15.7455705779837</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E17">
-        <v>12.17442266203418</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F17">
-        <v>91.69237154971474</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G17">
-        <v>3.817786984259024</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.129557709066747</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>49.91396728406931</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N17">
-        <v>16.94467103479671</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.367994270885115</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D18">
-        <v>15.61834183533097</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E18">
-        <v>12.0570944171904</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F18">
-        <v>91.35278508549899</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G18">
-        <v>3.821786220363746</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.128428266314591</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>49.65270960202968</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N18">
-        <v>16.94132343334623</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.3548739954823</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D19">
-        <v>15.57522733697519</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E19">
-        <v>12.01722780215044</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F19">
-        <v>91.23856357060473</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G19">
-        <v>3.823146089857687</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.128055526586419</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>49.5643081297921</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N19">
-        <v>16.94023456540432</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.413913822943513</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D20">
-        <v>15.76909939868926</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E20">
-        <v>12.19606979537495</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F20">
-        <v>91.75558030320555</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G20">
-        <v>3.817049553171423</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.129771348934678</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>49.96234524949325</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N20">
-        <v>16.94531170058903</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.612095491743283</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D21">
-        <v>16.4174622336276</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E21">
-        <v>12.78679932466512</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F21">
-        <v>93.5450286557346</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G21">
-        <v>3.796959550815857</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.13621644430658</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>51.30269140647869</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N21">
-        <v>16.96542678804525</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.74133197065698</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D22">
-        <v>16.83848015655279</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E22">
-        <v>13.16497274384747</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F22">
-        <v>94.75319834220235</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G22">
-        <v>3.784111025056775</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.140944790978223</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>52.17992156902687</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N22">
-        <v>16.98079814968922</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.672391160512151</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D23">
-        <v>16.61405197705921</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E23">
-        <v>12.96387635818949</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F23">
-        <v>94.10486036788438</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G23">
-        <v>3.790943555750105</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.138373349035838</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>51.711675177005</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N23">
-        <v>16.97239406336672</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.41067192100082</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D24">
-        <v>15.75846292003013</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E24">
-        <v>12.18628589070375</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F24">
-        <v>91.72699041992347</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G24">
-        <v>3.817382836092882</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.129674587851179</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>49.94047302574013</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N24">
-        <v>16.94502125707276</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.128155021342971</v>
+        <v>9.105902691508511</v>
       </c>
       <c r="D25">
-        <v>14.82714568131217</v>
+        <v>27.68270139764781</v>
       </c>
       <c r="E25">
-        <v>11.31597818041474</v>
+        <v>22.38959906207979</v>
       </c>
       <c r="F25">
-        <v>89.33026405901062</v>
+        <v>125.8325905844474</v>
       </c>
       <c r="G25">
-        <v>3.847185541363483</v>
+        <v>1.614859141052441</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.122449445398921</v>
+        <v>5.650176380775664</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>48.04191647818998</v>
+        <v>69.70370091771311</v>
       </c>
       <c r="N25">
-        <v>16.92538677698564</v>
+        <v>12.11811658776703</v>
       </c>
       <c r="O25">
         <v>0</v>
